--- a/funds/stocks/众信旅游&财务报表同型分析.xlsx
+++ b/funds/stocks/众信旅游&财务报表同型分析.xlsx
@@ -641,13 +641,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="28">
@@ -716,6 +716,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -731,22 +761,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,22 +790,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -783,9 +798,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,22 +838,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,28 +855,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,7 +899,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,61 +1049,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,109 +1079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,6 +1182,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1206,11 +1215,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,30 +1241,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,6 +1270,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1287,10 +1287,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,133 +1299,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1472,7 +1472,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1526,7 +1526,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1538,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1559,7 +1559,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3150,7 +3150,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3608,7 +3608,7 @@
         <v>126</v>
       </c>
       <c r="I20" s="45">
-        <v>9.88</v>
+        <v>9.06</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
-        <v>-20.5618973065675</v>
+        <v>-22.4229078795681</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="J31" s="13">
         <f>I31/I20</f>
-        <v>2.60608924342105</v>
+        <v>2.84196045529801</v>
       </c>
     </row>
     <row r="32" spans="7:10">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="J32" s="13">
         <f>I32/I20</f>
-        <v>1.82426247039474</v>
+        <v>1.98937231870861</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="J33" s="13">
         <f>I33/I20</f>
-        <v>5.21217848684211</v>
+        <v>5.68392091059603</v>
       </c>
     </row>
   </sheetData>
